--- a/data/evaluation/evaluation_Center_Winter_Lemons.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Lemons.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2826.634526494337</v>
+        <v>2599.388396848101</v>
       </c>
       <c r="C4" t="n">
-        <v>12550752.26724618</v>
+        <v>10245177.15951995</v>
       </c>
       <c r="D4" t="n">
-        <v>3542.704089709749</v>
+        <v>3200.808828955573</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2221434109746481</v>
+        <v>0.002364520216717514</v>
       </c>
     </row>
     <row r="5">
